--- a/biology/Zoologie/Apathya_cappadocica/Apathya_cappadocica.xlsx
+++ b/biology/Zoologie/Apathya_cappadocica/Apathya_cappadocica.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Apathya cappadocica est une espèce de sauriens de la famille des Lacertidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Apathya cappadocica est une espèce de sauriens de la famille des Lacertidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre en Iran, en Irak, en Syrie et en Turquie[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre en Iran, en Irak, en Syrie et en Turquie.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (9 décembre 2012)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (9 décembre 2012) :
 Apathya cappadocica cappadocica (Werner, 1902)
 Apathya cappadocica muhtari (Eiselt, 1979)
 Apathya cappadocica schmidtlerorum (Eiselt, 1979)
@@ -577,7 +593,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Bird, 1936 : The distribution of reptiles and amphibians in Asiatic Turkey with notes on a collection from the Vilayets of Adana, Gaziantep and Malatya. Annals and Magazine of Natural History, vol. 18, no 10, p. 257-281.
 Eiselt, 1979 : Ergebnisse zoologischer Sammelreisen in der Türkei Lacerta cappadocica Werner 1902 (Lacertidae, Reptilia). Annalen des Naturhistorischen Museums in Wien, vol. 82, p. 387-422 (texte intégral).
